--- a/new.xlsx
+++ b/new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anuja\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B67F747E-4189-4A48-B471-8CB3CADA76CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809B1976-7998-4D96-8C0F-F4A417871A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A5BFAE2A-536E-421F-BC05-1B172CA6700D}"/>
   </bookViews>
@@ -22,6 +22,74 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>ammonia</t>
+  </si>
+  <si>
+    <t>arsenic</t>
+  </si>
+  <si>
+    <t>barium</t>
+  </si>
+  <si>
+    <t>cadmium</t>
+  </si>
+  <si>
+    <t>chloramine</t>
+  </si>
+  <si>
+    <t>chromium</t>
+  </si>
+  <si>
+    <t>copper</t>
+  </si>
+  <si>
+    <t>flouride</t>
+  </si>
+  <si>
+    <t>bacteria</t>
+  </si>
+  <si>
+    <t>viruses</t>
+  </si>
+  <si>
+    <t>lead</t>
+  </si>
+  <si>
+    <t>nitrates</t>
+  </si>
+  <si>
+    <t>nitrites</t>
+  </si>
+  <si>
+    <t>mercury</t>
+  </si>
+  <si>
+    <t>perchlorate</t>
+  </si>
+  <si>
+    <t>radium</t>
+  </si>
+  <si>
+    <t>selenium</t>
+  </si>
+  <si>
+    <t>silver</t>
+  </si>
+  <si>
+    <t>uranium</t>
+  </si>
+  <si>
+    <t>aluminiumdanger</t>
+  </si>
+  <si>
+    <t>is_safe</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -371,12 +439,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4AE4D8-2222-47EE-9F86-2FE3CB365F42}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>